--- a/detail.xlsx
+++ b/detail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="13995" windowHeight="7605" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="13995" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
   <si>
     <t>Main</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1635,10 +1635,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>명세 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2512,15 +2508,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">const unsigned short * Man[] = {man_01,}; </t>
+  </si>
+  <si>
+    <t>Expect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>캐릭터 불러오기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">const unsigned short * Man[] = {man_01,}; </t>
+    <t>배경 영역 나눠 작성하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ongoing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰기, 걷기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가만히 있기, 다가오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경움직임 자연스럽게 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 로드문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2528,10 +2556,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="m&quot;/&quot;d;@"/>
-    <numFmt numFmtId="179" formatCode="&quot;₩&quot;#,##0"/>
+    <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
+    <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2684,13 +2712,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -2830,7 +2851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2870,44 +2891,116 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2918,82 +3011,7 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3528,11 +3546,11 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="15" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="14" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11.375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="4" bestFit="1" customWidth="1"/>
@@ -3545,263 +3563,263 @@
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="18" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1">
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A3" s="16">
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+    </row>
+    <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>43675</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-    </row>
-    <row r="4" spans="1:15" ht="17.25" customHeight="1">
-      <c r="B4" s="15" t="s">
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A5" s="16">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <v>43676</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:15" ht="17.25" customHeight="1">
-      <c r="B6" s="15" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="17"/>
+    </row>
+    <row r="6" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A7" s="16">
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="17"/>
+    </row>
+    <row r="7" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <v>43677</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:15" ht="17.25" customHeight="1">
-      <c r="B8" s="15" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A9" s="16">
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="17"/>
+    </row>
+    <row r="9" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>43678</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-    </row>
-    <row r="10" spans="1:15" ht="17.25" customHeight="1">
-      <c r="B10" s="15" t="s">
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+    </row>
+    <row r="10" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A11" s="16">
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>43679</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="1:15" ht="17.25" customHeight="1">
-      <c r="E12" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:15" ht="17.25" customHeight="1">
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-    </row>
-    <row r="14" spans="1:15" ht="17.25" customHeight="1">
-      <c r="E14" s="26" t="s">
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+    </row>
+    <row r="13" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1">
-      <c r="B16" s="32" t="s">
+    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="G16" s="10"/>
       <c r="H16" s="1" t="s">
         <v>22</v>
@@ -3813,13 +3831,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B17" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B18" s="14" t="s">
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="13" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -3829,8 +3847,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="B19" s="29" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="21" t="s">
         <v>68</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -3840,8 +3858,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
         <v>79</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -3851,7 +3869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,14 +3886,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -3883,11 +3901,11 @@
       </c>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="1:16">
-      <c r="B23" s="15" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -3895,8 +3913,8 @@
       </c>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:16">
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="14" t="s">
         <v>74</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -3907,19 +3925,19 @@
       </c>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B25" s="15" t="s">
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B26" s="15" t="s">
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -3927,7 +3945,7 @@
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G27" s="3" t="s">
         <v>5</v>
       </c>
@@ -3936,7 +3954,7 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3945,7 +3963,7 @@
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G29" s="3"/>
       <c r="H29" s="12" t="s">
         <v>24</v>
@@ -3957,7 +3975,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G30" s="3"/>
       <c r="H30" s="3" t="s">
         <v>25</v>
@@ -3969,7 +3987,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H31" s="12" t="s">
         <v>23</v>
       </c>
@@ -3980,7 +3998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H32" s="12" t="s">
         <v>26</v>
       </c>
@@ -3991,21 +4009,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="5:11">
-      <c r="G33" s="17" t="s">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="G33" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="5:11">
-      <c r="G34" s="17"/>
-      <c r="H34" s="17" t="s">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="G34" s="16"/>
+      <c r="H34" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="5:11">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G35" s="7" t="s">
         <v>30</v>
       </c>
@@ -4013,12 +4031,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="5:11">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H36" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="5:11">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G37" s="7" t="s">
         <v>44</v>
       </c>
@@ -4026,13 +4044,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="5:11">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H38" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="5:11" ht="15.75" thickBot="1"/>
-    <row r="40" spans="5:11" ht="17.25" thickBot="1">
+    <row r="39" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="5:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E40" s="9" t="s">
         <v>19</v>
       </c>
@@ -4042,40 +4060,40 @@
       <c r="H40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="5:11">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E41" s="8"/>
       <c r="F41" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="5:11">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E42" s="8"/>
       <c r="F42" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="5:11">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F43" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="8:8" ht="16.5">
+    <row r="55" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H55"/>
     </row>
-    <row r="71" spans="8:8" ht="16.5">
+    <row r="71" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H71"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="E7:N7"/>
     <mergeCell ref="E9:O9"/>
     <mergeCell ref="E11:N11"/>
     <mergeCell ref="E12:N12"/>
     <mergeCell ref="E1:M2"/>
     <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E10:N10"/>
-    <mergeCell ref="E7:N7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4086,230 +4104,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F31"/>
+  <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="15">
+        <v>43675</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="16"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="16">
-        <v>43675</v>
-      </c>
-      <c r="D4" s="54" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="23" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="16"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="33" t="s">
+      <c r="E5" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="42"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="16"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="16"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="33" t="s">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>43676</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="16"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="33"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="16">
-        <v>43676</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="33" t="s">
+      <c r="E10" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+      <c r="D11" s="23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="16"/>
-      <c r="D11" s="33" t="s">
+      <c r="F11" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="16"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="33" t="s">
+      <c r="F12" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="15">
+        <v>43677</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="16"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="33"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="16">
-        <v>43677</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="33" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="16"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="33" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="16"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="33" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="16"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="33" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="15">
+        <v>43678</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="16"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="33"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="16">
-        <v>43678</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="33" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
+      <c r="D20" s="23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="16"/>
-      <c r="D20" s="33" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
+      <c r="D21" s="23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="16"/>
-      <c r="D21" s="33" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="15">
+        <v>43679</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="15"/>
+      <c r="D24" s="23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="16"/>
-      <c r="D22" s="33"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="16">
-        <v>43679</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="16"/>
-      <c r="D24" s="33" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="24" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="16"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="16"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="34" t="s">
+      <c r="C27" s="25"/>
+      <c r="D27" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="D28" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="D29" s="44" t="s">
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
-      <c r="D30" s="48" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
-      <c r="D31" s="45" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="35" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4321,85 +4367,85 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="95.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="36" t="s">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="26"/>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="28"/>
+    </row>
+    <row r="6" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="36"/>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="37"/>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="38"/>
-    </row>
-    <row r="6" spans="2:2" ht="33">
-      <c r="B6" s="39" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="29"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="39"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="39" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="29"/>
+    </row>
+    <row r="10" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="30" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="39"/>
-    </row>
-    <row r="10" spans="2:2" ht="33">
-      <c r="B10" s="40" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="30"/>
+    </row>
+    <row r="12" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="40"/>
-    </row>
-    <row r="12" spans="2:2" ht="33">
-      <c r="B12" s="41" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="31"/>
+    </row>
+    <row r="14" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B14" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="41"/>
-    </row>
-    <row r="14" spans="2:2" ht="33">
-      <c r="B14" s="39" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="39"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="39" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="39"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="42" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="32"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="33" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="42"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="43" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4412,23 +4458,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="41.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/detail.xlsx
+++ b/detail.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="131">
   <si>
     <t>Main</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1639,33 +1639,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>배경(Stage) 만들기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 캐릭터 움직임 코드 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 코드 작성 시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 움직임  코드 작성 시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 관련 코드 작성 및 마무리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2504,50 +2477,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">const unsigned short * Man[] = {man_01,}; </t>
+  </si>
+  <si>
+    <t>Expect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 영역 나눠 작성하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ongoing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰기, 걷기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가만히 있기, 다가오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경움직임 자연스럽게 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 로드문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 움직임  코드 작성 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 캐릭터 움직임 코드 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>배경(Stage) 만들기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>캐릭터 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">const unsigned short * Man[] = {man_01,}; </t>
-  </si>
-  <si>
-    <t>Expect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 불러오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경 영역 나눠 작성하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ongoing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뛰기, 걷기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가만히 있기, 다가오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경움직임 자연스럽게 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경 로드문제</t>
+    <t>공격 코드 작성 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 움직임  코드 작성 시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2984,12 +2988,24 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3001,18 +3017,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3572,28 +3576,28 @@
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
@@ -3632,18 +3636,18 @@
       <c r="B5" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
       <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3672,36 +3676,36 @@
       <c r="C7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
       <c r="O7" s="17"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3714,19 +3718,19 @@
       <c r="C9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
     </row>
     <row r="10" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
@@ -3735,18 +3739,18 @@
       <c r="C10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
       <c r="O10" s="17"/>
     </row>
     <row r="11" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3760,33 +3764,33 @@
         <v>59</v>
       </c>
       <c r="D11" s="21"/>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
       <c r="O11" s="17"/>
     </row>
     <row r="12" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
+      <c r="E12" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="14"/>
@@ -3801,12 +3805,12 @@
       <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -3833,7 +3837,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4085,6 +4089,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E1:M2"/>
+    <mergeCell ref="E5:N5"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E8:N8"/>
     <mergeCell ref="E10:N10"/>
@@ -4092,8 +4098,6 @@
     <mergeCell ref="E9:O9"/>
     <mergeCell ref="E11:N11"/>
     <mergeCell ref="E12:N12"/>
-    <mergeCell ref="E1:M2"/>
-    <mergeCell ref="E5:N5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4107,7 +4111,7 @@
   <dimension ref="B2:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4125,13 +4129,13 @@
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -4150,27 +4154,27 @@
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="23" t="s">
-        <v>87</v>
+      <c r="D5" s="39" t="s">
+        <v>127</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="15"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="23" t="s">
-        <v>118</v>
+      <c r="D6" s="40" t="s">
+        <v>128</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -4178,15 +4182,15 @@
       <c r="C7" s="14"/>
       <c r="D7" s="23"/>
       <c r="E7" s="40" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F7" s="42"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="15"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="23" t="s">
-        <v>88</v>
+      <c r="D8" s="40" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -4199,42 +4203,42 @@
         <v>43676</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="23" t="s">
-        <v>89</v>
+      <c r="D10" s="40" t="s">
+        <v>129</v>
       </c>
       <c r="E10" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="39" t="s">
         <v>124</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="15"/>
-      <c r="D11" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>90</v>
+      <c r="D11" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="15"/>
       <c r="C12" s="14"/>
       <c r="D12" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -4248,28 +4252,28 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="15"/>
       <c r="C15" s="21"/>
       <c r="D15" s="23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="15"/>
       <c r="C16" s="14"/>
       <c r="D16" s="23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
       <c r="C17" s="14"/>
       <c r="D17" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -4283,19 +4287,19 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
       <c r="D20" s="23" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
       <c r="D21" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -4307,13 +4311,13 @@
         <v>43679</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="15"/>
       <c r="D24" s="23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -4325,16 +4329,16 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="36" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D28" s="37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
@@ -4375,7 +4379,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
@@ -4389,7 +4393,7 @@
     </row>
     <row r="6" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
@@ -4397,7 +4401,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -4405,7 +4409,7 @@
     </row>
     <row r="10" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
@@ -4413,7 +4417,7 @@
     </row>
     <row r="12" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
@@ -4421,7 +4425,7 @@
     </row>
     <row r="14" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
@@ -4429,7 +4433,7 @@
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
@@ -4437,7 +4441,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
@@ -4445,7 +4449,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="33" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4469,12 +4473,12 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/detail.xlsx
+++ b/detail.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="135">
   <si>
     <t>Main</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2552,6 +2552,22 @@
   </si>
   <si>
     <t>몬스터 움직임  코드 작성 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move / Draw 함수 분리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 움직임 코드 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영역 계산 오류 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 맵, 플레이어, 좀비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2988,6 +3004,15 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3008,15 +3033,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3576,28 +3592,28 @@
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
@@ -3636,18 +3652,18 @@
       <c r="B5" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
       <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3676,36 +3692,36 @@
       <c r="C7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
       <c r="O7" s="17"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3718,19 +3734,19 @@
       <c r="C9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
     </row>
     <row r="10" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
@@ -3739,18 +3755,18 @@
       <c r="C10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
       <c r="O10" s="17"/>
     </row>
     <row r="11" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3764,33 +3780,33 @@
         <v>59</v>
       </c>
       <c r="D11" s="21"/>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
       <c r="O11" s="17"/>
     </row>
     <row r="12" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
     </row>
     <row r="13" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="14"/>
@@ -3805,12 +3821,12 @@
       <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -4110,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4268,20 +4284,32 @@
       <c r="D16" s="23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
       <c r="C17" s="14"/>
       <c r="D17" s="23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="15"/>
       <c r="C18" s="14"/>
       <c r="D18" s="23"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="15">
         <v>43678</v>
       </c>
@@ -4290,23 +4318,23 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
       <c r="D20" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
       <c r="D21" s="23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="15"/>
       <c r="D22" s="23"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="15">
         <v>43679</v>
       </c>
@@ -4314,20 +4342,20 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="15"/>
       <c r="D24" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="15"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="24" t="s">
         <v>96</v>
       </c>
@@ -4336,22 +4364,22 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D28" s="37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D29" s="34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D30" s="38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D31" s="35" t="s">
         <v>79</v>
       </c>
